--- a/REGULAR/OJT/DIMARANAN, GREGORIA.xlsx
+++ b/REGULAR/OJT/DIMARANAN, GREGORIA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2315,7 +2315,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2358,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2422,7 +2422,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2482,7 +2482,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2548,7 +2548,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2611,7 +2611,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2709,7 +2709,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2768,7 +2768,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2833,7 +2833,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2876,7 +2876,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2951,7 +2951,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3137,7 +3137,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3203,7 +3203,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3261,7 +3261,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3327,7 +3327,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3383,7 +3383,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3458,7 +3458,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3501,7 +3501,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3567,7 +3567,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3623,7 +3623,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3721,7 +3721,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3784,7 +3784,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4234,7 +4234,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A557" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K571" sqref="K571"/>
+      <selection pane="bottomLeft" activeCell="B571" sqref="B571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
